--- a/rekap.xlsx
+++ b/rekap.xlsx
@@ -8,11 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Abhi" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Zian" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Greatta" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Krisna" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Greatta" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Rama" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="langgam" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Zian" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="langgam" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Rama" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,16 @@
           <t>Keterangan</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Telat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pulang Cepat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -495,6 +505,8 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -511,6 +523,8 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -567,6 +583,8 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -595,6 +613,8 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -627,6 +647,8 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -643,6 +665,8 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -659,6 +683,8 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -675,6 +701,8 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -703,6 +731,8 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -731,6 +761,8 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -759,6 +791,8 @@
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -787,6 +821,8 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -815,6 +851,8 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -831,6 +869,8 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -847,6 +887,8 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -875,6 +917,8 @@
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -903,6 +947,8 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -919,6 +965,8 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -951,6 +999,8 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -979,6 +1029,8 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -995,6 +1047,8 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1011,6 +1065,8 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1039,6 +1095,8 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1059,10 +1117,14 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Pulang Cepat</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1079,6 +1141,8 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1095,6 +1159,8 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1111,6 +1177,8 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1127,6 +1195,8 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1143,6 +1213,8 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1159,6 +1231,44 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1171,7 +1281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,6 +1330,16 @@
           <t>Keterangan</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Telat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pulang Cepat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1236,6 +1356,8 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1252,6 +1374,8 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1264,18 +1388,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:59</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>08:53</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Datang Tepat Waktu</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1288,14 +1426,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:56</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1304,6 +1446,8 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1316,7 +1460,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1332,6 +1476,8 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1343,11 +1489,29 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Datang Terlambat</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,14 +1524,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1376,6 +1540,8 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1392,6 +1558,8 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1408,6 +1576,8 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1420,14 +1590,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:51</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>08:54</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1436,6 +1614,8 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1448,11 +1628,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:51</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>08:54</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>17:03</t>
@@ -1464,6 +1652,8 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1476,11 +1666,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:56</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>17:00</t>
@@ -1488,10 +1682,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Datang Terlambat</t>
+          <t>Datang Tepat Waktu</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1504,22 +1700,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
-      </c>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Datang Terlambat</t>
+          <t>Pulang Cepat</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1530,12 +1734,30 @@
           <t>Jumat, 14 Juli 2023</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08:55</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Datang Tepat Waktu</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1552,6 +1774,8 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1568,6 +1792,8 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1580,22 +1806,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09:01</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Datang Terlambat</t>
+          <t>Datang Tepat Waktu</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1611,8 +1843,16 @@
           <t>08:48</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>17:00</t>
@@ -1624,6 +1864,8 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1640,6 +1882,8 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1652,22 +1896,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:03</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12:33</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Datang Terlambat</t>
+          <t>Datang Tepat Waktu</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1680,7 +1934,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09:05</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1692,10 +1946,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Datang Terlambat</t>
+          <t>Datang Tepat Waktu</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1712,6 +1968,8 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1728,6 +1986,8 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1743,11 +2003,15 @@
           <t>09:01</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1756,6 +2020,10 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1772,14 +2040,22 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Pulang Cepat</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1796,6 +2072,8 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1812,6 +2090,8 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1828,6 +2108,8 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1844,6 +2126,8 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1860,6 +2144,8 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1876,6 +2162,44 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1888,7 +2212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,6 +2261,16 @@
           <t>Keterangan</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Telat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pulang Cepat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1953,6 +2287,8 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1969,6 +2305,8 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2005,6 +2343,8 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2041,6 +2381,8 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2069,10 +2411,14 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Pulang Cepat</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2109,6 +2455,8 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2145,6 +2493,8 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2161,6 +2511,8 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2177,6 +2529,8 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2205,10 +2559,14 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Pulang Cepat</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2245,6 +2603,8 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2261,6 +2621,8 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2297,6 +2659,8 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2333,6 +2697,8 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2349,6 +2715,8 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2365,6 +2733,8 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2401,6 +2771,8 @@
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2437,6 +2809,8 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2453,6 +2827,8 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2489,6 +2865,8 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2521,6 +2899,8 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2537,6 +2917,8 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2553,6 +2935,8 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2569,6 +2953,8 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2585,6 +2971,8 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2601,6 +2989,8 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2617,6 +3007,8 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2633,6 +3025,8 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2649,6 +3043,8 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2665,6 +3061,8 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2681,6 +3079,44 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2693,7 +3129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2742,6 +3178,16 @@
           <t>Keterangan</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Telat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pulang Cepat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2758,6 +3204,8 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2774,6 +3222,8 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2786,30 +3236,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:53</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12:01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>13:01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
-      </c>
+          <t>08:59</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Pulang Cepat</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2822,18 +3264,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>13:02</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2842,6 +3280,8 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2854,7 +3294,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>08:56</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -2870,6 +3310,8 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2881,27 +3323,13 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12:25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13:37</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>17:04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Datang Terlambat</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2914,14 +3342,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2930,6 +3358,10 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2946,6 +3378,8 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2962,6 +3396,8 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2974,22 +3410,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:54</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>13:01</t>
-        </is>
-      </c>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2998,6 +3426,8 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3010,19 +3440,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:54</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12:55</t>
-        </is>
-      </c>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>17:03</t>
@@ -3034,6 +3456,8 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3046,15 +3470,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12:56</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>17:00</t>
@@ -3062,10 +3482,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Datang Terlambat</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3078,26 +3500,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:51</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>12:55</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Datang Terlambat</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3108,28 +3528,14 @@
           <t>Jumat, 14 Juli 2023</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>08:55</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11:57</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Datang Tepat Waktu</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3146,6 +3552,8 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3162,6 +3570,8 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3174,26 +3584,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:42</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12:20</t>
-        </is>
-      </c>
+          <t>09:01</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Datang Terlambat</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3209,16 +3619,8 @@
           <t>08:48</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13:15</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>17:00</t>
@@ -3230,6 +3632,8 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3246,6 +3650,8 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3258,30 +3664,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:45</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12:03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>12:33</t>
-        </is>
-      </c>
+          <t>09:03</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Datang Terlambat</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3294,7 +3696,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>09:05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -3306,10 +3708,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Datang Terlambat</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3326,6 +3732,8 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3342,6 +3750,8 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3357,15 +3767,11 @@
           <t>09:01</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>12:24</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3374,6 +3780,10 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3390,18 +3800,18 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>14:07</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Datang Tepat Waktu</t>
+          <t>Pulang Cepat</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3418,6 +3828,8 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3434,6 +3846,8 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3450,6 +3864,8 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3466,6 +3882,8 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3482,6 +3900,8 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3498,6 +3918,44 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>13</v>
+      </c>
+      <c r="J34" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3510,7 +3968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3559,6 +4017,16 @@
           <t>Keterangan</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Telat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pulang Cepat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3575,6 +4043,8 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3591,6 +4061,8 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3601,24 +4073,14 @@
           <t>Senin, 03 Juli 2023</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Datang Terlambat</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3629,24 +4091,14 @@
           <t>Selasa, 04 Juli 2023</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>08:58</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Datang Tepat Waktu</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3657,24 +4109,14 @@
           <t>Rabu, 05 Juli 2023</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>08:58</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Datang Tepat Waktu</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3691,6 +4133,8 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3707,6 +4151,8 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3723,6 +4169,8 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3739,6 +4187,8 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3752,17 +4202,11 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>17:03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Datang Terlambat</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3773,24 +4217,14 @@
           <t>Selasa, 11 Juli 2023</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>08:16</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>17:06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Datang Tepat Waktu</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3801,24 +4235,14 @@
           <t>Rabu, 12 Juli 2023</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>08:54</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Datang Tepat Waktu</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3835,6 +4259,8 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3845,24 +4271,14 @@
           <t>Jumat, 14 Juli 2023</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>08:55</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Datang Tepat Waktu</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3879,6 +4295,8 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3895,6 +4313,8 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3905,24 +4325,14 @@
           <t>Senin, 17 Juli 2023</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>08:54</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Datang Tepat Waktu</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3933,24 +4343,14 @@
           <t>Selasa, 18 Juli 2023</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>08:58</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Datang Tepat Waktu</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3967,6 +4367,8 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3983,6 +4385,8 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3999,6 +4403,8 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4015,6 +4421,8 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4031,6 +4439,8 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4047,6 +4457,8 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4059,10 +4471,20 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14:44</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Datang Terlambat</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4079,6 +4501,8 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4095,6 +4519,8 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4111,6 +4537,8 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4127,6 +4555,8 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4143,6 +4573,8 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4159,6 +4591,44 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4171,7 +4641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4220,6 +4690,16 @@
           <t>Keterangan</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Telat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pulang Cepat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4236,6 +4716,8 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -4252,6 +4734,8 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4262,12 +4746,26 @@
           <t>Senin, 03 Juli 2023</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Datang Terlambat</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4278,12 +4776,26 @@
           <t>Selasa, 04 Juli 2023</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08:58</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Datang Tepat Waktu</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4294,12 +4806,26 @@
           <t>Rabu, 05 Juli 2023</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08:58</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Datang Tepat Waktu</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4316,6 +4842,8 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4332,6 +4860,8 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4348,6 +4878,8 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4364,6 +4896,8 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4377,9 +4911,19 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Datang Terlambat</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4390,12 +4934,26 @@
           <t>Selasa, 11 Juli 2023</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08:16</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Datang Tepat Waktu</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4406,12 +4964,26 @@
           <t>Rabu, 12 Juli 2023</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08:54</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Datang Tepat Waktu</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4428,6 +5000,8 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4438,12 +5012,26 @@
           <t>Jumat, 14 Juli 2023</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08:55</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Datang Tepat Waktu</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4460,6 +5048,8 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4476,6 +5066,8 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4486,12 +5078,26 @@
           <t>Senin, 17 Juli 2023</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08:54</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Datang Tepat Waktu</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4502,12 +5108,26 @@
           <t>Selasa, 18 Juli 2023</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08:58</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Datang Tepat Waktu</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4524,6 +5144,8 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4540,6 +5162,8 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4556,6 +5180,8 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4572,6 +5198,8 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4588,6 +5216,8 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4604,6 +5234,8 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4616,18 +5248,12 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>14:44</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Datang Terlambat</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4644,6 +5270,8 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4660,6 +5288,8 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4676,6 +5306,8 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4692,6 +5324,8 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4708,6 +5342,8 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4724,6 +5360,44 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
